--- a/Data_example.xlsx
+++ b/Data_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jejeongmin/PycharmProjects/Python_Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A89E5899-30C3-294A-8CFC-F7DDA8138E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B8EA94A-5CEE-AF41-A0DF-5689D369ED9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{56A19DA6-66F8-5A42-8C7F-E6E9C0C2B178}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{AD2BFFB4-4D29-E447-909E-CFC98DE779D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,16 @@
     <t>math</t>
   </si>
   <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>korean</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
     <t>python</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>korean</t>
-  </si>
-  <si>
-    <t>science</t>
   </si>
   <si>
     <t>java</t>
@@ -405,11 +405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AF417-151E-AD4A-95B0-4D9E0D73AFBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6514D266-90CA-D348-8701-C060226389E3}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,22 +439,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -462,19 +462,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F3">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>83</v>
